--- a/attached_assets/Lead Form_1763437805952.xlsx
+++ b/attached_assets/Lead Form_1763437805952.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtnenggdiv-my.sharepoint.com/personal/gtnit_gtnengg_net/Documents/Narain_IT/Desktop/Contract Review/attached_assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="75" documentId="13_ncr:1_{8719064E-0C39-41BF-A1C3-88013C32A551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{678CB1A0-3C91-4A87-8158-B86B421278B7}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="13_ncr:1_{8719064E-0C39-41BF-A1C3-88013C32A551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6710F535-AB97-4F27-868F-1B0AF2BB7274}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3BFFA4E6-91AA-4B0A-AE2F-A1F5F36CB1C0}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="FMCCustomer" localSheetId="0">[1]Sheet12!$A$1:$A$13</definedName>
     <definedName name="FMCCustomer">[2]Sheet12!$A$1:$A$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Lead Time'!$A$1:$S$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Lead Time'!$A$1:$S$40</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Lead Time'!$1:$5</definedName>
     <definedName name="zone" localSheetId="0">#REF!</definedName>
     <definedName name="zone">#REF!</definedName>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>President - Operations</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>Manager - CSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name: </t>
   </si>
   <si>
     <t>Adaikkalasamy . S</t>
@@ -303,7 +300,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="58">
+  <borders count="57">
     <border>
       <left/>
       <right/>
@@ -993,22 +990,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1050,60 +1036,144 @@
     <xf numFmtId="165" fontId="11" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1140,16 +1210,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1172,129 +1257,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1305,35 +1267,47 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1850,10 +1824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB32C0A3-B00C-413C-8CE3-66C7B4EEFC59}">
-  <dimension ref="A1:S97"/>
+  <dimension ref="A1:S96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="X38" sqref="X38"/>
+      <selection activeCell="A39" sqref="A39:C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1880,1021 +1854,988 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="70"/>
-      <c r="B1" s="71"/>
-      <c r="C1" s="74" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="76"/>
+      <c r="A1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="32"/>
       <c r="O1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P1" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="79"/>
+      <c r="P1" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="35"/>
     </row>
     <row r="2" spans="1:19" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="72"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="80" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="82"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="38"/>
       <c r="O2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="85"/>
+      <c r="P2" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="41"/>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="93" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="17"/>
+      <c r="A3" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="50"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="99"/>
       <c r="E3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="17"/>
+        <v>24</v>
+      </c>
+      <c r="F3" s="97"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="99"/>
       <c r="J3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="17"/>
+        <v>23</v>
+      </c>
+      <c r="K3" s="97"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="99"/>
       <c r="O3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="20"/>
+        <v>22</v>
+      </c>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="101"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="50"/>
     </row>
     <row r="4" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="88" t="s">
+      <c r="A4" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88" t="s">
+      <c r="B4" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="91" t="s">
+      <c r="C4" s="44"/>
+      <c r="D4" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="90" t="s">
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="64" t="s">
+      <c r="K4" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="91"/>
-      <c r="N4" s="90" t="s">
+      <c r="L4" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="88" t="s">
+      <c r="M4" s="47"/>
+      <c r="N4" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="64" t="s">
+      <c r="O4" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="65"/>
-      <c r="S4" s="66"/>
+      <c r="P4" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q4" s="102"/>
+      <c r="R4" s="102"/>
+      <c r="S4" s="103"/>
     </row>
     <row r="5" spans="1:19" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="92"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="89"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="69"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="105"/>
     </row>
     <row r="6" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
       <c r="J6" s="7"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="26"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="22"/>
       <c r="N6" s="8"/>
       <c r="O6" s="9"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="25"/>
     </row>
     <row r="7" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
       <c r="J7" s="7"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="26"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="22"/>
       <c r="N7" s="8"/>
       <c r="O7" s="9"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="25"/>
     </row>
     <row r="8" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
       <c r="J8" s="7"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="26"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="22"/>
       <c r="N8" s="8"/>
       <c r="O8" s="9"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="25"/>
     </row>
     <row r="9" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
       <c r="J9" s="7"/>
       <c r="K9" s="6"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="26"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="22"/>
       <c r="N9" s="8"/>
       <c r="O9" s="9"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="25"/>
     </row>
     <row r="10" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
       <c r="J10" s="7"/>
       <c r="K10" s="6"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="26"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="22"/>
       <c r="N10" s="8"/>
       <c r="O10" s="9"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="25"/>
     </row>
     <row r="11" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
       <c r="J11" s="7"/>
       <c r="K11" s="6"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="26"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="22"/>
       <c r="N11" s="8"/>
       <c r="O11" s="9"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="25"/>
     </row>
     <row r="12" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
       <c r="J12" s="7"/>
       <c r="K12" s="6"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="26"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="22"/>
       <c r="N12" s="8"/>
       <c r="O12" s="9"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="25"/>
     </row>
     <row r="13" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
       <c r="J13" s="7"/>
       <c r="K13" s="6"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="26"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="22"/>
       <c r="N13" s="8"/>
       <c r="O13" s="9"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="25"/>
     </row>
     <row r="14" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
       <c r="J14" s="7"/>
       <c r="K14" s="6"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="26"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="22"/>
       <c r="N14" s="8"/>
       <c r="O14" s="9"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="25"/>
     </row>
     <row r="15" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
       <c r="J15" s="7"/>
       <c r="K15" s="6"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="26"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="22"/>
       <c r="N15" s="8"/>
       <c r="O15" s="9"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="25"/>
     </row>
     <row r="16" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
       <c r="J16" s="7"/>
       <c r="K16" s="6"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="26"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="22"/>
       <c r="N16" s="8"/>
       <c r="O16" s="9"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="25"/>
     </row>
     <row r="17" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
       <c r="J17" s="7"/>
       <c r="K17" s="6"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="26"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="22"/>
       <c r="N17" s="8"/>
       <c r="O17" s="9"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="25"/>
     </row>
     <row r="18" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
       <c r="J18" s="7"/>
       <c r="K18" s="6"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="26"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="22"/>
       <c r="N18" s="8"/>
       <c r="O18" s="9"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="25"/>
     </row>
     <row r="19" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
       <c r="J19" s="7"/>
       <c r="K19" s="6"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="26"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="22"/>
       <c r="N19" s="8"/>
       <c r="O19" s="9"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="25"/>
     </row>
     <row r="20" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
       <c r="J20" s="7"/>
       <c r="K20" s="6"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="26"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="22"/>
       <c r="N20" s="8"/>
       <c r="O20" s="9"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="25"/>
     </row>
     <row r="21" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
       <c r="J21" s="7"/>
       <c r="K21" s="6"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="26"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="22"/>
       <c r="N21" s="8"/>
       <c r="O21" s="9"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="22"/>
-      <c r="S21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="25"/>
     </row>
     <row r="22" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
       <c r="J22" s="7"/>
       <c r="K22" s="6"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="26"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="22"/>
       <c r="N22" s="8"/>
       <c r="O22" s="9"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="25"/>
     </row>
     <row r="23" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
       <c r="J23" s="7"/>
       <c r="K23" s="6"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="26"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="22"/>
       <c r="N23" s="8"/>
       <c r="O23" s="9"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="22"/>
-      <c r="S23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="25"/>
     </row>
     <row r="24" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
       <c r="J24" s="7"/>
       <c r="K24" s="6"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="26"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="22"/>
       <c r="N24" s="8"/>
       <c r="O24" s="9"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="25"/>
     </row>
     <row r="25" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
       <c r="J25" s="7"/>
       <c r="K25" s="6"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="26"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="22"/>
       <c r="N25" s="8"/>
       <c r="O25" s="9"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="22"/>
-      <c r="S25" s="23"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="25"/>
     </row>
     <row r="26" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
       <c r="J26" s="7"/>
       <c r="K26" s="6"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="26"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="22"/>
       <c r="N26" s="8"/>
       <c r="O26" s="9"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="22"/>
-      <c r="S26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="25"/>
     </row>
     <row r="27" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
       <c r="J27" s="7"/>
       <c r="K27" s="6"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="26"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="22"/>
       <c r="N27" s="8"/>
       <c r="O27" s="9"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="22"/>
-      <c r="S27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="25"/>
     </row>
     <row r="28" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
       <c r="J28" s="7"/>
       <c r="K28" s="6"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="26"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="22"/>
       <c r="N28" s="8"/>
       <c r="O28" s="9"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="22"/>
-      <c r="S28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="24"/>
+      <c r="S28" s="25"/>
     </row>
     <row r="29" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
       <c r="J29" s="7"/>
       <c r="K29" s="6"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="26"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="22"/>
       <c r="N29" s="8"/>
       <c r="O29" s="9"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="22"/>
-      <c r="S29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="24"/>
+      <c r="S29" s="25"/>
     </row>
     <row r="30" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
       <c r="J30" s="7"/>
       <c r="K30" s="6"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="26"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="22"/>
       <c r="N30" s="8"/>
       <c r="O30" s="9"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="22"/>
-      <c r="S30" s="23"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="24"/>
+      <c r="S30" s="25"/>
     </row>
     <row r="31" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
       <c r="J31" s="7"/>
       <c r="K31" s="6"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="26"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="22"/>
       <c r="N31" s="8"/>
       <c r="O31" s="9"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="22"/>
-      <c r="S31" s="23"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="24"/>
+      <c r="R31" s="24"/>
+      <c r="S31" s="25"/>
     </row>
     <row r="32" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
       <c r="J32" s="7"/>
       <c r="K32" s="6"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="26"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="22"/>
       <c r="N32" s="8"/>
       <c r="O32" s="9"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="22"/>
-      <c r="S32" s="23"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="24"/>
+      <c r="R32" s="24"/>
+      <c r="S32" s="25"/>
     </row>
     <row r="33" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
       <c r="J33" s="7"/>
       <c r="K33" s="6"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="26"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="22"/>
       <c r="N33" s="8"/>
       <c r="O33" s="9"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="22"/>
-      <c r="S33" s="23"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="24"/>
+      <c r="R33" s="24"/>
+      <c r="S33" s="25"/>
     </row>
     <row r="34" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
       <c r="J34" s="7"/>
       <c r="K34" s="6"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="26"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="22"/>
       <c r="N34" s="8"/>
       <c r="O34" s="9"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="22"/>
-      <c r="R34" s="22"/>
-      <c r="S34" s="23"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="24"/>
+      <c r="S34" s="25"/>
     </row>
     <row r="35" spans="1:19" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
-      <c r="B35" s="59"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="60"/>
-      <c r="H35" s="60"/>
-      <c r="I35" s="60"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
       <c r="J35" s="12"/>
       <c r="K35" s="11"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="28"/>
+      <c r="L35" s="92"/>
+      <c r="M35" s="93"/>
       <c r="N35" s="13"/>
       <c r="O35" s="14"/>
-      <c r="P35" s="29"/>
-      <c r="Q35" s="30"/>
-      <c r="R35" s="30"/>
-      <c r="S35" s="31"/>
+      <c r="P35" s="94"/>
+      <c r="Q35" s="95"/>
+      <c r="R35" s="95"/>
+      <c r="S35" s="96"/>
     </row>
     <row r="36" spans="1:19" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" s="62"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="62"/>
-      <c r="H36" s="62"/>
-      <c r="I36" s="62"/>
-      <c r="J36" s="62"/>
-      <c r="K36" s="62"/>
-      <c r="L36" s="62"/>
-      <c r="M36" s="62"/>
-      <c r="N36" s="62"/>
-      <c r="O36" s="62"/>
-      <c r="P36" s="62"/>
-      <c r="Q36" s="62"/>
-      <c r="R36" s="62"/>
-      <c r="S36" s="63"/>
+      <c r="A36" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="59"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="59"/>
+      <c r="J36" s="59"/>
+      <c r="K36" s="59"/>
+      <c r="L36" s="59"/>
+      <c r="M36" s="59"/>
+      <c r="N36" s="59"/>
+      <c r="O36" s="59"/>
+      <c r="P36" s="59"/>
+      <c r="Q36" s="59"/>
+      <c r="R36" s="59"/>
+      <c r="S36" s="60"/>
     </row>
     <row r="37" spans="1:19" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="56"/>
-      <c r="B37" s="57"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="57"/>
-      <c r="K37" s="57"/>
-      <c r="L37" s="57"/>
-      <c r="M37" s="57"/>
-      <c r="N37" s="57"/>
-      <c r="O37" s="57"/>
-      <c r="P37" s="57"/>
-      <c r="Q37" s="57"/>
-      <c r="R37" s="57"/>
-      <c r="S37" s="58"/>
-    </row>
-    <row r="38" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="B38" s="51"/>
-      <c r="C38" s="52"/>
-      <c r="D38" s="100" t="s">
+      <c r="A37" s="53"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="54"/>
+      <c r="K37" s="54"/>
+      <c r="L37" s="54"/>
+      <c r="M37" s="54"/>
+      <c r="N37" s="54"/>
+      <c r="O37" s="54"/>
+      <c r="P37" s="54"/>
+      <c r="Q37" s="54"/>
+      <c r="R37" s="54"/>
+      <c r="S37" s="55"/>
+    </row>
+    <row r="38" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="101"/>
-      <c r="F38" s="101"/>
-      <c r="G38" s="102"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="49"/>
-      <c r="L38" s="49"/>
-      <c r="M38" s="49"/>
-      <c r="N38" s="49"/>
-      <c r="O38" s="49"/>
-      <c r="P38" s="49"/>
-      <c r="Q38" s="53"/>
-      <c r="R38" s="54"/>
-      <c r="S38" s="55"/>
-    </row>
-    <row r="39" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="94" t="s">
+      <c r="B38" s="84"/>
+      <c r="C38" s="85"/>
+      <c r="D38" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="74"/>
+      <c r="F38" s="74"/>
+      <c r="G38" s="75"/>
+      <c r="H38" s="82"/>
+      <c r="I38" s="82"/>
+      <c r="J38" s="82"/>
+      <c r="K38" s="82"/>
+      <c r="L38" s="82"/>
+      <c r="M38" s="82"/>
+      <c r="N38" s="82"/>
+      <c r="O38" s="82"/>
+      <c r="P38" s="82"/>
+      <c r="Q38" s="86"/>
+      <c r="R38" s="87"/>
+      <c r="S38" s="88"/>
+    </row>
+    <row r="39" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="89"/>
+      <c r="B39" s="90"/>
+      <c r="C39" s="91"/>
+      <c r="D39" s="76"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="77"/>
+      <c r="G39" s="78"/>
+      <c r="H39" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I39" s="17"/>
+      <c r="J39" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K39" s="17"/>
+      <c r="L39" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M39" s="16"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="95"/>
-      <c r="C39" s="96"/>
-      <c r="D39" s="103"/>
-      <c r="E39" s="104"/>
-      <c r="F39" s="104"/>
-      <c r="G39" s="105"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="46"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="46"/>
-      <c r="L39" s="45"/>
-      <c r="M39" s="47"/>
-      <c r="N39" s="46"/>
-      <c r="O39" s="45"/>
-      <c r="P39" s="46"/>
-      <c r="Q39" s="45"/>
-      <c r="R39" s="47"/>
-      <c r="S39" s="48"/>
-    </row>
-    <row r="40" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="97"/>
-      <c r="B40" s="98"/>
-      <c r="C40" s="99"/>
-      <c r="D40" s="103"/>
-      <c r="E40" s="106"/>
-      <c r="F40" s="106"/>
-      <c r="G40" s="105"/>
-      <c r="H40" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="I40" s="46"/>
-      <c r="J40" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="K40" s="46"/>
-      <c r="L40" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="M40" s="47"/>
-      <c r="N40" s="46"/>
-      <c r="O40" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="P40" s="46"/>
-      <c r="Q40" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="R40" s="47"/>
-      <c r="S40" s="48"/>
-    </row>
-    <row r="41" spans="1:19" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="34"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="107"/>
-      <c r="E41" s="108"/>
-      <c r="F41" s="108"/>
-      <c r="G41" s="109"/>
-      <c r="H41" s="37" t="s">
+      <c r="R39" s="16"/>
+      <c r="S39" s="18"/>
+    </row>
+    <row r="40" spans="1:19" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="62"/>
+      <c r="B40" s="63"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="79"/>
+      <c r="E40" s="80"/>
+      <c r="F40" s="80"/>
+      <c r="G40" s="81"/>
+      <c r="H40" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="I41" s="38"/>
-      <c r="J41" s="39" t="s">
+      <c r="I40" s="66"/>
+      <c r="J40" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="39"/>
-      <c r="L41" s="39" t="s">
+      <c r="K40" s="67"/>
+      <c r="L40" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="M41" s="39"/>
-      <c r="N41" s="39"/>
-      <c r="O41" s="39" t="s">
+      <c r="M40" s="67"/>
+      <c r="N40" s="67"/>
+      <c r="O40" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="P41" s="39"/>
-      <c r="Q41" s="37" t="s">
+      <c r="P40" s="67"/>
+      <c r="Q40" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="R41" s="40"/>
-      <c r="S41" s="41"/>
+      <c r="R40" s="68"/>
+      <c r="S40" s="69"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="70"/>
+      <c r="B95" s="71"/>
+      <c r="C95" s="71"/>
+      <c r="D95" s="71"/>
+      <c r="E95" s="72"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="42"/>
-      <c r="B96" s="43"/>
-      <c r="C96" s="43"/>
-      <c r="D96" s="43"/>
-      <c r="E96" s="44"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="33"/>
-      <c r="B97" s="33"/>
-      <c r="C97" s="33"/>
-      <c r="D97" s="33"/>
-      <c r="E97" s="33"/>
+      <c r="A96" s="61"/>
+      <c r="B96" s="61"/>
+      <c r="C96" s="61"/>
+      <c r="D96" s="61"/>
+      <c r="E96" s="61"/>
     </row>
   </sheetData>
-  <mergeCells count="167">
+  <mergeCells count="162">
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="P35:S35"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="D16:I16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="P16:S16"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="P21:S21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="A96:E96"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="Q40:S40"/>
+    <mergeCell ref="A95:E95"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:K39"/>
     <mergeCell ref="L39:N39"/>
     <mergeCell ref="O39:P39"/>
     <mergeCell ref="Q39:S39"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:I27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="P27:S27"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:I32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="P32:S32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="P33:S33"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="P30:S30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="P31:S31"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:I34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="P34:S34"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:I24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="P25:S25"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:I28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="P28:S28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:I29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="P29:S29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:I26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="P26:S26"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="P19:S19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="P20:S20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:I23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="P23:S23"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:N1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="D4:I5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="L4:M5"/>
-    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="D38:G40"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="Q38:S38"/>
+    <mergeCell ref="A39:C39"/>
     <mergeCell ref="A37:S37"/>
     <mergeCell ref="D9:I9"/>
     <mergeCell ref="D10:I10"/>
@@ -2919,76 +2860,81 @@
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="P15:S15"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A97:E97"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="Q41:S41"/>
-    <mergeCell ref="A96:E96"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="Q40:S40"/>
-    <mergeCell ref="D38:G41"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:N38"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="Q38:S38"/>
-    <mergeCell ref="A39:C40"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="P35:S35"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="D16:I16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="P16:S16"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:I21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="P21:S21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:I22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:N1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:I5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="L4:M5"/>
+    <mergeCell ref="K4:K5"/>
     <mergeCell ref="K3:N3"/>
     <mergeCell ref="P3:S3"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="D8:I8"/>
     <mergeCell ref="P4:S5"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="P19:S19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="P20:S20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:I23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="P34:S34"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:I24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="P25:S25"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:I28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="P28:S28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="P29:S29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:I26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="P26:S26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:I27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="P27:S27"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:I32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="P32:S32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="P33:S33"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="P30:S30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="P31:S31"/>
+    <mergeCell ref="B34:C34"/>
   </mergeCells>
   <conditionalFormatting sqref="A3 C3 E3:F3 J3:K3 O3:P3 T3:XFD3">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="N/A">
